--- a/banks/zynlo/catalog/ZYNLO_Bank_Catalog.xlsx
+++ b/banks/zynlo/catalog/ZYNLO_Bank_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/zynlo/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AD2540-5553-D240-87F9-04B716AA0305}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC01DFE-F8AB-E040-B13A-8890DCFE4DF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="618">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -1876,12 +1876,6 @@
     <t>iPay Bill Payments</t>
   </si>
   <si>
-    <t>Zynlo Checking</t>
-  </si>
-  <si>
-    <t>Zynlo Savings</t>
-  </si>
-  <si>
     <t>Zynlo</t>
   </si>
   <si>
@@ -1892,13 +1886,25 @@
   </si>
   <si>
     <t>zynlo@nymbus.support</t>
+  </si>
+  <si>
+    <t>Zyndexed Money Market Account</t>
+  </si>
+  <si>
+    <t>Today Savings Account</t>
+  </si>
+  <si>
+    <t>Tomorrow Savings Account with Zyng</t>
+  </si>
+  <si>
+    <t>102</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2147,6 +2153,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF111315"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2284,7 +2296,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2532,28 +2544,8 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2573,9 +2565,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2770,8 +2783,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>274680</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>87720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3579,22 +3592,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3604,66 +3617,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="122">
+      <c r="H8" s="114">
         <v>2</v>
       </c>
-      <c r="I8" s="122"/>
+      <c r="I8" s="114"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3681,325 +3694,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="119" t="s">
+      <c r="H13" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="119"/>
+      <c r="I13" s="118"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="117" t="s">
+      <c r="H14" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="117"/>
+      <c r="I14" s="119"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="117" t="s">
+      <c r="H15" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="117"/>
+      <c r="I15" s="119"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="117" t="s">
+      <c r="H16" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="117"/>
+      <c r="I16" s="119"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="117" t="s">
+      <c r="H17" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="117"/>
+      <c r="I17" s="119"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="117" t="s">
+      <c r="H18" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="117"/>
+      <c r="I18" s="119"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="117" t="s">
+      <c r="H19" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="117"/>
+      <c r="I19" s="119"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="117" t="s">
+      <c r="H20" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="117"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="117" t="s">
+      <c r="H21" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="117"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="117" t="s">
+      <c r="C22" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="117" t="s">
+      <c r="H22" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="117"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="117" t="s">
+      <c r="H23" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="117"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="117" t="s">
+      <c r="H24" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="117"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="114" t="s">
+      <c r="H25" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="114"/>
+      <c r="I25" s="121"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="114" t="s">
+      <c r="C26" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="114" t="s">
+      <c r="H26" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="114"/>
+      <c r="I26" s="121"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="114" t="s">
+      <c r="C27" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="114" t="s">
+      <c r="H27" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="114"/>
+      <c r="I27" s="121"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="114" t="s">
+      <c r="H28" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="114"/>
+      <c r="I28" s="121"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="114" t="s">
+      <c r="C29" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="114" t="s">
+      <c r="H29" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="114"/>
+      <c r="I29" s="121"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="114" t="s">
+      <c r="C30" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4012,504 +4025,405 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="114" t="s">
+      <c r="H31" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="114"/>
+      <c r="I31" s="121"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="116" t="s">
+      <c r="C32" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="114" t="s">
+      <c r="H32" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="114"/>
+      <c r="I32" s="121"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="115" t="s">
+      <c r="H33" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="115"/>
+      <c r="I33" s="123"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="115" t="s">
+      <c r="H34" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="115"/>
+      <c r="I34" s="123"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="121"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="121"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="121"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="121"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="121"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="126"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="121"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="126"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="114"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="126"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="121"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="126"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="125"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="124"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="111"/>
-      <c r="F53" s="111"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="112"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="111"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="124"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="111"/>
-      <c r="F55" s="111"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="112"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="124"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="111"/>
-      <c r="F56" s="111"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="111"/>
-      <c r="F57" s="111"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="112"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="124"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="111"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
+      <c r="H59" s="124"/>
+      <c r="I59" s="124"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="111"/>
-      <c r="E60" s="111"/>
-      <c r="F60" s="111"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="111"/>
-      <c r="I60" s="111"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="111"/>
-      <c r="D61" s="111"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="111"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="111"/>
-      <c r="F62" s="111"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="111"/>
-      <c r="I62" s="111"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="111"/>
-      <c r="D63" s="111"/>
-      <c r="E63" s="111"/>
-      <c r="F63" s="111"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="111"/>
-      <c r="I63" s="111"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="111"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="111"/>
-      <c r="F64" s="111"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="111"/>
-      <c r="I64" s="111"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="125"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="111"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="111"/>
-      <c r="I65" s="111"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4526,6 +4440,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4820,7 +4833,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4964,8 +4977,12 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="45">
+        <v>0</v>
+      </c>
+      <c r="B19" s="46">
+        <v>103</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" s="45"/>
@@ -5058,7 +5075,7 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5570,15 +5587,15 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="18">
       <c r="A17" s="1">
         <v>101</v>
       </c>
       <c r="B17" s="40">
         <v>1</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>610</v>
+      <c r="C17" s="127" t="s">
+        <v>615</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5604,15 +5621,15 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="18">
       <c r="A18" s="1">
         <v>102</v>
       </c>
       <c r="B18" s="40">
         <v>1</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>611</v>
+      <c r="C18" s="127" t="s">
+        <v>616</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5638,10 +5655,16 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="1"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="50"/>
+    <row r="19" spans="1:26" ht="18">
+      <c r="A19" s="1">
+        <v>103</v>
+      </c>
+      <c r="B19" s="40">
+        <v>1</v>
+      </c>
+      <c r="C19" s="127" t="s">
+        <v>614</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -6398,7 +6421,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6590,38 +6613,44 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="18">
       <c r="A17" s="1">
         <v>101</v>
       </c>
       <c r="B17" s="40">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>610</v>
+      <c r="C17" s="127" t="s">
+        <v>615</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="18">
       <c r="A18" s="1">
         <v>102</v>
       </c>
       <c r="B18" s="40">
         <v>1</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>611</v>
+      <c r="C18" s="127" t="s">
+        <v>616</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="46"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="46"/>
+    <row r="19" spans="1:6" ht="18">
+      <c r="A19" s="46">
+        <v>103</v>
+      </c>
+      <c r="B19" s="40">
+        <v>1</v>
+      </c>
+      <c r="C19" s="127" t="s">
+        <v>614</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -6775,10 +6804,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7085,7 +7114,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="18">
       <c r="A17" s="1">
         <v>101</v>
       </c>
@@ -7104,12 +7133,12 @@
       <c r="H17" s="51"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="50" t="s">
-        <v>610</v>
+      <c r="K17" s="127" t="s">
+        <v>615</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" ht="18">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -7128,50 +7157,56 @@
       <c r="H18" s="51"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="50" t="s">
-        <v>611</v>
+      <c r="K18" s="127" t="s">
+        <v>616</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>513</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>514</v>
-      </c>
-      <c r="K19" t="s">
-        <v>515</v>
+    <row r="19" spans="1:12" ht="18">
+      <c r="A19" s="1">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>102</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="127" t="s">
+        <v>614</v>
       </c>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K20" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
         <v>516</v>
@@ -7180,16 +7215,16 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
         <v>516</v>
@@ -7198,25 +7233,29 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
+        <v>518</v>
+      </c>
+      <c r="K22" t="s">
+        <v>518</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>516</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>519</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K23" t="s">
         <v>519</v>
       </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="50"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -7248,7 +7287,7 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="47"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="48"/>
       <c r="D26" s="1"/>
@@ -7283,7 +7322,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="50"/>
@@ -7390,7 +7429,7 @@
     <row r="36" spans="1:12">
       <c r="A36" s="47"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="46"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -7528,27 +7567,27 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="F46" s="52"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
       <c r="K46" s="50"/>
+      <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="47"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="F47" s="52"/>
       <c r="K47" s="50"/>
-      <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="47"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="46"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -7574,15 +7613,22 @@
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="1"/>
-      <c r="C50" s="26"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="50"/>
+      <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1"/>
-      <c r="C51" s="46"/>
+      <c r="C51" s="26"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="K51" s="50"/>
@@ -7596,7 +7642,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1"/>
-      <c r="C53" s="26"/>
+      <c r="C53" s="46"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="K53" s="50"/>
@@ -7605,7 +7651,7 @@
       <c r="A54" s="1"/>
       <c r="C54" s="26"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="47"/>
+      <c r="F54" s="1"/>
       <c r="K54" s="50"/>
     </row>
     <row r="55" spans="1:12">
@@ -7621,6 +7667,13 @@
       <c r="E56" s="1"/>
       <c r="F56" s="47"/>
       <c r="K56" s="50"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1"/>
+      <c r="C57" s="26"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="47"/>
+      <c r="K57" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7633,10 +7686,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7847,10 +7900,10 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19">
-        <v>64</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="1">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
@@ -7860,7 +7913,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7872,7 +7925,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -7884,7 +7937,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7895,8 +7948,12 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="47"/>
-      <c r="B23" s="1"/>
+      <c r="A23">
+        <v>181</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -8054,8 +8111,16 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1">
-      <c r="B43" s="46"/>
+    <row r="43" spans="1:6">
+      <c r="A43" s="47"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1">
+      <c r="B44" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -8067,8 +8132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8243,7 +8308,7 @@
         <v>406</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D17" s="53">
         <v>1</v>
@@ -8454,7 +8519,7 @@
         <v>425</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D27" s="53">
         <v>1</v>
@@ -8497,7 +8562,7 @@
         <v>429</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D29" s="53">
         <v>1</v>
@@ -8537,7 +8602,7 @@
         <v>432</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D31" s="53">
         <v>1</v>
@@ -8560,7 +8625,7 @@
         <v>434</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D32" s="53">
         <v>1</v>
@@ -8582,8 +8647,8 @@
       <c r="A33" t="s">
         <v>436</v>
       </c>
-      <c r="B33" s="126" t="s">
-        <v>615</v>
+      <c r="B33" s="111" t="s">
+        <v>613</v>
       </c>
       <c r="D33" s="53">
         <v>1</v>
@@ -8745,7 +8810,7 @@
         <v>446</v>
       </c>
       <c r="B41" s="76" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D41" s="53">
         <v>1</v>
@@ -8952,7 +9017,7 @@
         <v>597</v>
       </c>
       <c r="B51" s="59" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D51" s="53">
         <v>1</v>
@@ -9754,7 +9819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -10373,7 +10438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
@@ -13318,7 +13383,7 @@
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13638,7 +13703,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:25" s="60" customFormat="1">
+    <row r="17" spans="1:25" s="60" customFormat="1" ht="18">
       <c r="A17" s="1">
         <v>101</v>
       </c>
@@ -13655,14 +13720,14 @@
       <c r="H17" s="45">
         <v>1</v>
       </c>
-      <c r="I17" t="s">
-        <v>610</v>
-      </c>
-      <c r="J17" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="I17" s="127" t="s">
+        <v>615</v>
+      </c>
+      <c r="J17" s="127" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="18">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -13679,11 +13744,11 @@
       <c r="H18" s="45">
         <v>1</v>
       </c>
-      <c r="I18" s="26" t="s">
-        <v>611</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>611</v>
+      <c r="I18" s="127" t="s">
+        <v>616</v>
+      </c>
+      <c r="J18" s="127" t="s">
+        <v>616</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -13701,17 +13766,29 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="1"/>
+    <row r="19" spans="1:25" ht="18">
+      <c r="A19" s="1">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="26"/>
+      <c r="H19" s="45">
+        <v>1</v>
+      </c>
+      <c r="I19" s="127" t="s">
+        <v>614</v>
+      </c>
+      <c r="J19" s="127" t="s">
+        <v>614</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -14097,7 +14174,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14608,7 +14685,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" s="62" customFormat="1">
+    <row r="17" spans="1:26" s="62" customFormat="1" ht="18">
       <c r="A17" s="60">
         <v>101</v>
       </c>
@@ -14619,8 +14696,8 @@
         <v>1</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>610</v>
+      <c r="E17" s="127" t="s">
+        <v>615</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -14644,7 +14721,7 @@
       <c r="Y17" s="60"/>
       <c r="Z17" s="60"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="18">
       <c r="A18" s="1">
         <v>201</v>
       </c>
@@ -14655,8 +14732,8 @@
         <v>1</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="26" t="s">
-        <v>611</v>
+      <c r="E18" s="127" t="s">
+        <v>616</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -14680,12 +14757,20 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="49"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="45"/>
+    <row r="19" spans="1:26" ht="18">
+      <c r="A19" s="49" t="s">
+        <v>617</v>
+      </c>
+      <c r="B19" s="46">
+        <v>103</v>
+      </c>
+      <c r="C19" s="45">
+        <v>1</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="127" t="s">
+        <v>614</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>

--- a/banks/zynlo/catalog/ZYNLO_Bank_Catalog.xlsx
+++ b/banks/zynlo/catalog/ZYNLO_Bank_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/zynlo/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC01DFE-F8AB-E040-B13A-8890DCFE4DF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A805CE-8777-2746-95CA-B6E523F9B88B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -1495,9 +1495,6 @@
     <t>Estate</t>
   </si>
   <si>
-    <t>Powell</t>
-  </si>
-  <si>
     <t>OHIO</t>
   </si>
   <si>
@@ -1567,9 +1564,6 @@
     <t>EN=English name</t>
   </si>
   <si>
-    <t>9961 Brewster LN</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
@@ -1849,9 +1843,6 @@
     <t>ATM Location</t>
   </si>
   <si>
-    <t>ALL</t>
-  </si>
-  <si>
     <t>billPay-ipay-external-transfers</t>
   </si>
   <si>
@@ -1882,12 +1873,6 @@
     <t>011875428</t>
   </si>
   <si>
-    <t>1-833-682-3852</t>
-  </si>
-  <si>
-    <t>zynlo@nymbus.support</t>
-  </si>
-  <si>
     <t>Zyndexed Money Market Account</t>
   </si>
   <si>
@@ -1898,6 +1883,21 @@
   </si>
   <si>
     <t>102</t>
+  </si>
+  <si>
+    <t>WESTERVILLE</t>
+  </si>
+  <si>
+    <t>PO Box  1437</t>
+  </si>
+  <si>
+    <t>support@zynlobank.com</t>
+  </si>
+  <si>
+    <t>1-844-996-5622</t>
+  </si>
+  <si>
+    <t>Today Spending Account</t>
   </si>
 </sst>
 </file>
@@ -2547,6 +2547,30 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2565,30 +2589,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3592,22 +3592,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3617,66 +3617,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="114">
+      <c r="H8" s="124">
         <v>2</v>
       </c>
-      <c r="I8" s="114"/>
+      <c r="I8" s="124"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3694,19 +3694,19 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="118" t="s">
+      <c r="H13" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="118"/>
+      <c r="I13" s="121"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
@@ -3916,103 +3916,103 @@
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="121" t="s">
+      <c r="H25" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="121"/>
+      <c r="I25" s="116"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="121" t="s">
+      <c r="H26" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="121"/>
+      <c r="I26" s="116"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="121" t="s">
+      <c r="H27" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="121"/>
+      <c r="I27" s="116"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="121" t="s">
+      <c r="H28" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="121"/>
+      <c r="I28" s="116"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="121" t="s">
+      <c r="C29" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="121" t="s">
+      <c r="H29" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="121"/>
+      <c r="I29" s="116"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="121" t="s">
+      <c r="C30" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4025,405 +4025,504 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="121" t="s">
+      <c r="C31" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="121" t="s">
+      <c r="H31" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="121"/>
+      <c r="I31" s="116"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="122" t="s">
+      <c r="C32" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="121" t="s">
+      <c r="H32" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="121"/>
+      <c r="I32" s="116"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="123" t="s">
+      <c r="H33" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="123"/>
+      <c r="I33" s="117"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="123" t="s">
+      <c r="C34" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="123" t="s">
+      <c r="H34" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="123"/>
+      <c r="I34" s="117"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="121"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="121"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="121"/>
-      <c r="I46" s="121"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="121"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="121"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="121"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="125"/>
-      <c r="F51" s="125"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="124"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="124"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="114"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="124"/>
-      <c r="I55" s="124"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="114"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="125"/>
-      <c r="E57" s="125"/>
-      <c r="F57" s="125"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="124"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="114"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="125"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="124"/>
-      <c r="I59" s="124"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="125"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="125"/>
+      <c r="H60" s="113"/>
+      <c r="I60" s="113"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="113"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="125"/>
+      <c r="H61" s="113"/>
+      <c r="I61" s="113"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="125"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="113"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="125"/>
+      <c r="H62" s="113"/>
+      <c r="I62" s="113"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
+      <c r="H63" s="113"/>
+      <c r="I63" s="113"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="113"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="125"/>
+      <c r="H64" s="113"/>
+      <c r="I64" s="113"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="113"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
+      <c r="H65" s="113"/>
+      <c r="I65" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4440,105 +4539,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4565,7 +4565,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
@@ -4579,7 +4579,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -4621,7 +4621,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -4683,7 +4683,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -4697,7 +4697,7 @@
         <v>293</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
@@ -4736,50 +4736,50 @@
     </row>
     <row r="14" spans="1:8" ht="32">
       <c r="A14" s="107" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>349</v>
       </c>
       <c r="D14" s="106" t="s">
+        <v>492</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>584</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>585</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>586</v>
+      </c>
+      <c r="H14" s="107" t="s">
         <v>493</v>
-      </c>
-      <c r="E14" s="106" t="s">
-        <v>586</v>
-      </c>
-      <c r="F14" s="106" t="s">
-        <v>587</v>
-      </c>
-      <c r="G14" s="106" t="s">
-        <v>588</v>
-      </c>
-      <c r="H14" s="107" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="80">
       <c r="A15" s="107"/>
       <c r="B15" s="107" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C15" s="107"/>
       <c r="D15" s="106" t="s">
+        <v>495</v>
+      </c>
+      <c r="E15" s="106" t="s">
+        <v>587</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>588</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>589</v>
+      </c>
+      <c r="H15" s="106" t="s">
         <v>496</v>
-      </c>
-      <c r="E15" s="106" t="s">
-        <v>589</v>
-      </c>
-      <c r="F15" s="106" t="s">
-        <v>590</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>591</v>
-      </c>
-      <c r="H15" s="106" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C17" s="105">
         <v>1</v>
@@ -4815,7 +4815,7 @@
         <v>500000</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -5594,8 +5594,8 @@
       <c r="B17" s="40">
         <v>1</v>
       </c>
-      <c r="C17" s="127" t="s">
-        <v>615</v>
+      <c r="C17" s="112" t="s">
+        <v>610</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5628,8 +5628,8 @@
       <c r="B18" s="40">
         <v>1</v>
       </c>
-      <c r="C18" s="127" t="s">
-        <v>616</v>
+      <c r="C18" s="112" t="s">
+        <v>611</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5662,8 +5662,8 @@
       <c r="B19" s="40">
         <v>1</v>
       </c>
-      <c r="C19" s="127" t="s">
-        <v>614</v>
+      <c r="C19" s="112" t="s">
+        <v>609</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6421,7 +6421,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6620,8 +6620,8 @@
       <c r="B17" s="40">
         <v>1</v>
       </c>
-      <c r="C17" s="127" t="s">
-        <v>615</v>
+      <c r="C17" s="112" t="s">
+        <v>617</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -6634,8 +6634,8 @@
       <c r="B18" s="40">
         <v>1</v>
       </c>
-      <c r="C18" s="127" t="s">
-        <v>616</v>
+      <c r="C18" s="112" t="s">
+        <v>611</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -6648,8 +6648,8 @@
       <c r="B19" s="40">
         <v>1</v>
       </c>
-      <c r="C19" s="127" t="s">
-        <v>614</v>
+      <c r="C19" s="112" t="s">
+        <v>609</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6807,7 +6807,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7133,8 +7133,8 @@
       <c r="H17" s="51"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="127" t="s">
-        <v>615</v>
+      <c r="K17" s="112" t="s">
+        <v>617</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -7157,8 +7157,8 @@
       <c r="H18" s="51"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="127" t="s">
-        <v>616</v>
+      <c r="K18" s="112" t="s">
+        <v>611</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -7181,8 +7181,8 @@
       <c r="H19" s="51"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="127" t="s">
-        <v>614</v>
+      <c r="K19" s="112" t="s">
+        <v>609</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -7191,16 +7191,16 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
+        <v>511</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>512</v>
+      </c>
+      <c r="K20" t="s">
         <v>513</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>514</v>
-      </c>
-      <c r="K20" t="s">
-        <v>515</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -7209,16 +7209,16 @@
         <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -7227,16 +7227,16 @@
         <v>180</v>
       </c>
       <c r="C22" t="s">
+        <v>514</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>516</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>518</v>
-      </c>
       <c r="K22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -7245,16 +7245,16 @@
         <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K23" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -8133,7 +8133,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8308,7 +8308,7 @@
         <v>406</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D17" s="53">
         <v>1</v>
@@ -8519,7 +8519,7 @@
         <v>425</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D27" s="53">
         <v>1</v>
@@ -8562,7 +8562,7 @@
         <v>429</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D29" s="53">
         <v>1</v>
@@ -8602,7 +8602,7 @@
         <v>432</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D31" s="53">
         <v>1</v>
@@ -8625,7 +8625,7 @@
         <v>434</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D32" s="53">
         <v>1</v>
@@ -8648,7 +8648,7 @@
         <v>436</v>
       </c>
       <c r="B33" s="111" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D33" s="53">
         <v>1</v>
@@ -8671,7 +8671,7 @@
         <v>438</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>507</v>
+        <v>614</v>
       </c>
       <c r="D34" s="53">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>440</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>483</v>
+        <v>613</v>
       </c>
       <c r="D36" s="53">
         <v>1</v>
@@ -8729,7 +8729,7 @@
         <v>441</v>
       </c>
       <c r="B37" s="59">
-        <v>43035</v>
+        <v>43086</v>
       </c>
       <c r="D37" s="53">
         <v>1</v>
@@ -8749,7 +8749,7 @@
         <v>442</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D38" s="53">
         <v>1</v>
@@ -8769,7 +8769,7 @@
         <v>443</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D39" s="53">
         <v>1</v>
@@ -8810,7 +8810,7 @@
         <v>446</v>
       </c>
       <c r="B41" s="76" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D41" s="53">
         <v>1</v>
@@ -8951,30 +8951,30 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="B48" t="s">
+        <v>519</v>
+      </c>
+      <c r="D48" s="53">
+        <v>1</v>
+      </c>
+      <c r="E48" s="53">
+        <v>1</v>
+      </c>
+      <c r="F48" s="53">
+        <v>0</v>
+      </c>
+      <c r="G48" s="53">
+        <v>1</v>
+      </c>
+      <c r="H48" s="26" t="s">
         <v>520</v>
-      </c>
-      <c r="B48" t="s">
-        <v>521</v>
-      </c>
-      <c r="D48" s="53">
-        <v>1</v>
-      </c>
-      <c r="E48" s="53">
-        <v>1</v>
-      </c>
-      <c r="F48" s="53">
-        <v>0</v>
-      </c>
-      <c r="G48" s="53">
-        <v>1</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -8989,12 +8989,12 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -9009,15 +9009,15 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
       <c r="A51" s="110" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B51" s="59" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D51" s="53">
         <v>1</v>
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="74" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -9465,7 +9465,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C29" s="59">
         <v>1</v>
@@ -9478,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -9495,7 +9495,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9518,7 +9518,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I1" s="67"/>
     </row>
@@ -9527,7 +9527,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -9572,7 +9572,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -9639,7 +9639,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="69"/>
@@ -9692,10 +9692,10 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="73" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" s="73" t="s">
         <v>503</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>504</v>
       </c>
       <c r="C14" s="73" t="s">
         <v>300</v>
@@ -9704,109 +9704,109 @@
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="73"/>
       <c r="B15" s="73" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" s="73" t="s">
         <v>505</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="66" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>601</v>
+        <v>506</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
       <c r="A17" s="74" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="74" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19" s="74" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
       <c r="A20" s="74" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
       <c r="A21" s="66" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
       <c r="A22" s="66" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
       <c r="A23" s="66" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="66" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -9844,7 +9844,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D1" s="80"/>
     </row>
@@ -9853,7 +9853,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D2" s="80"/>
     </row>
@@ -9880,7 +9880,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D5" s="80"/>
     </row>
@@ -9917,7 +9917,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D10" s="80"/>
     </row>
@@ -9947,31 +9947,31 @@
         <v>352</v>
       </c>
       <c r="B14" s="86" t="s">
+        <v>524</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" s="86" t="s">
         <v>526</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="E14" s="86" t="s">
         <v>527</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="F14" s="86" t="s">
         <v>528</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="G14" s="86" t="s">
         <v>529</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="H14" s="86" t="s">
         <v>530</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="I14" s="86" t="s">
         <v>531</v>
       </c>
-      <c r="H14" s="86" t="s">
+      <c r="J14" s="86" t="s">
         <v>532</v>
-      </c>
-      <c r="I14" s="86" t="s">
-        <v>533</v>
-      </c>
-      <c r="J14" s="86" t="s">
-        <v>534</v>
       </c>
       <c r="K14" s="86"/>
     </row>
@@ -10006,19 +10006,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D17" s="79">
         <v>371</v>
       </c>
       <c r="F17" s="79" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H17" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -10026,19 +10026,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D18" s="79">
         <v>371</v>
       </c>
       <c r="F18" s="79" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H18" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -10046,19 +10046,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="79" t="s">
+        <v>537</v>
+      </c>
+      <c r="C19" s="79" t="s">
         <v>539</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>541</v>
       </c>
       <c r="D19" s="79">
         <v>371</v>
       </c>
       <c r="F19" s="79" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H19" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -10066,19 +10066,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D20" s="79">
         <v>371</v>
       </c>
       <c r="F20" s="79" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H20" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -10086,19 +10086,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D21" s="79">
         <v>313</v>
       </c>
       <c r="F21" s="79" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H21" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -10106,19 +10106,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D22" s="79">
         <v>313</v>
       </c>
       <c r="F22" s="79" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H22" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -10126,19 +10126,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D23" s="79">
         <v>313</v>
       </c>
       <c r="F23" s="79" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H23" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -10146,19 +10146,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D24" s="79">
         <v>712</v>
       </c>
       <c r="F24" s="79" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H24" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10166,19 +10166,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D25" s="79">
         <v>712</v>
       </c>
       <c r="F25" s="79" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H25" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -10186,19 +10186,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D26" s="79">
         <v>712</v>
       </c>
       <c r="F26" s="79" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H26" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -10206,19 +10206,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D27" s="79">
         <v>316</v>
       </c>
       <c r="F27" s="79" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H27" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -10226,19 +10226,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D28" s="79">
         <v>316</v>
       </c>
       <c r="F28" s="79" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H28" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -10246,19 +10246,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D29" s="79">
         <v>316</v>
       </c>
       <c r="F29" s="79" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H29" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -10266,19 +10266,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D30" s="79">
         <v>321</v>
       </c>
       <c r="F30" s="79" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H30" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -10286,19 +10286,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D31" s="79">
         <v>321</v>
       </c>
       <c r="F31" s="79" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H31" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -10306,19 +10306,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D32" s="79">
         <v>321</v>
       </c>
       <c r="F32" s="79" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H32" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -10326,10 +10326,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C33" s="79" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D33" s="87">
         <v>833</v>
@@ -10338,7 +10338,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="H33" s="79" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -10438,7 +10438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
@@ -10458,7 +10458,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C1" s="80"/>
     </row>
@@ -10563,10 +10563,10 @@
         <v>349</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D14" s="86" t="s">
         <v>300</v>
@@ -10574,10 +10574,10 @@
     </row>
     <row r="15" spans="1:4" ht="16">
       <c r="A15" s="89" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C15" s="89"/>
       <c r="D15" s="89" t="s">
@@ -10587,7 +10587,7 @@
     <row r="16" spans="1:4" ht="16">
       <c r="A16" s="90"/>
       <c r="B16" s="90" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C16" s="90"/>
       <c r="D16" s="90" t="s">
@@ -10602,10 +10602,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -10616,10 +10616,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="87" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D18" s="87" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -10630,10 +10630,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D19" s="87" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16">
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D20" s="92" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -10658,10 +10658,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="87" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D21" s="87" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10672,10 +10672,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="87" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D22" s="87" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16">
@@ -10686,10 +10686,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="87" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D23" s="92" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -10700,10 +10700,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="87" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -10714,10 +10714,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="87" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -10728,10 +10728,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="87" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -11948,7 +11948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -12276,7 +12276,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C24" s="96">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="95" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="80">
@@ -12293,7 +12293,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="99" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C25" s="100">
         <v>0</v>
@@ -12302,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="101" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="96">
@@ -12310,7 +12310,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="99" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C26" s="100">
         <v>0</v>
@@ -12319,7 +12319,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="101" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -12583,7 +12583,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12597,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -12611,7 +12611,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -12625,7 +12625,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12639,7 +12639,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -13383,7 +13383,7 @@
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13720,11 +13720,11 @@
       <c r="H17" s="45">
         <v>1</v>
       </c>
-      <c r="I17" s="127" t="s">
-        <v>615</v>
-      </c>
-      <c r="J17" s="127" t="s">
-        <v>615</v>
+      <c r="I17" s="112" t="s">
+        <v>617</v>
+      </c>
+      <c r="J17" s="112" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="18">
@@ -13744,11 +13744,11 @@
       <c r="H18" s="45">
         <v>1</v>
       </c>
-      <c r="I18" s="127" t="s">
-        <v>616</v>
-      </c>
-      <c r="J18" s="127" t="s">
-        <v>616</v>
+      <c r="I18" s="112" t="s">
+        <v>611</v>
+      </c>
+      <c r="J18" s="112" t="s">
+        <v>611</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -13783,11 +13783,11 @@
       <c r="H19" s="45">
         <v>1</v>
       </c>
-      <c r="I19" s="127" t="s">
-        <v>614</v>
-      </c>
-      <c r="J19" s="127" t="s">
-        <v>614</v>
+      <c r="I19" s="112" t="s">
+        <v>609</v>
+      </c>
+      <c r="J19" s="112" t="s">
+        <v>609</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -14174,7 +14174,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14696,8 +14696,8 @@
         <v>1</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="127" t="s">
-        <v>615</v>
+      <c r="E17" s="112" t="s">
+        <v>617</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -14732,8 +14732,8 @@
         <v>1</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="127" t="s">
-        <v>616</v>
+      <c r="E18" s="112" t="s">
+        <v>611</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -14759,7 +14759,7 @@
     </row>
     <row r="19" spans="1:26" ht="18">
       <c r="A19" s="49" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B19" s="46">
         <v>103</v>
@@ -14768,8 +14768,8 @@
         <v>1</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="127" t="s">
-        <v>614</v>
+      <c r="E19" s="112" t="s">
+        <v>609</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -15403,7 +15403,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13" customHeight="1">
@@ -15411,7 +15411,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13" customHeight="1">
@@ -15435,7 +15435,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13" customHeight="1">
@@ -15467,7 +15467,7 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13" customHeight="1">
@@ -15495,7 +15495,7 @@
         <v>292</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13" customHeight="1">

--- a/banks/zynlo/catalog/ZYNLO_Bank_Catalog.xlsx
+++ b/banks/zynlo/catalog/ZYNLO_Bank_Catalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/zynlo/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A805CE-8777-2746-95CA-B6E523F9B88B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D7EB03-6F92-FC47-B3BB-D1139F56952D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -2548,29 +2548,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2588,6 +2565,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3592,22 +3592,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3617,66 +3617,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="124">
+      <c r="H8" s="115">
         <v>2</v>
       </c>
-      <c r="I8" s="124"/>
+      <c r="I8" s="115"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3694,325 +3694,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="121" t="s">
+      <c r="H13" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="121"/>
+      <c r="I13" s="119"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="119"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="119" t="s">
+      <c r="H15" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="119"/>
+      <c r="I15" s="120"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="119" t="s">
+      <c r="H16" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="119"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="119" t="s">
+      <c r="H17" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="119"/>
+      <c r="I17" s="120"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="119" t="s">
+      <c r="H18" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="119"/>
+      <c r="I18" s="120"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="119" t="s">
+      <c r="H19" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="119"/>
+      <c r="I19" s="120"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="119" t="s">
+      <c r="H20" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="119" t="s">
+      <c r="H21" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="119"/>
+      <c r="I21" s="120"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="119" t="s">
+      <c r="H22" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="119"/>
+      <c r="I22" s="120"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="119" t="s">
+      <c r="H23" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="119"/>
+      <c r="I23" s="120"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="119" t="s">
+      <c r="H24" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="119"/>
+      <c r="I24" s="120"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="116" t="s">
+      <c r="H25" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="116"/>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="116" t="s">
+      <c r="H26" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="116"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="116" t="s">
+      <c r="C27" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="116" t="s">
+      <c r="H27" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="116"/>
+      <c r="I27" s="122"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="116" t="s">
+      <c r="H28" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="116"/>
+      <c r="I28" s="122"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="116" t="s">
+      <c r="C29" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="116" t="s">
+      <c r="H29" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="116"/>
+      <c r="I29" s="122"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="116" t="s">
+      <c r="C30" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4025,504 +4025,405 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="116" t="s">
+      <c r="C31" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="116" t="s">
+      <c r="H31" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="116"/>
+      <c r="I31" s="122"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="116" t="s">
+      <c r="H32" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="116"/>
+      <c r="I32" s="122"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="117" t="s">
+      <c r="C33" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="117" t="s">
+      <c r="H33" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="117"/>
+      <c r="I33" s="124"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="117" t="s">
+      <c r="H34" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="117"/>
+      <c r="I34" s="124"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="122"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="116"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="116"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="114"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="114"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="114"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="113"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="125"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="113"/>
-      <c r="I60" s="113"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="113"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="126"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="113"/>
-      <c r="I61" s="113"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="113"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="113"/>
-      <c r="I62" s="113"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="113"/>
-      <c r="I63" s="113"/>
+      <c r="H63" s="126"/>
+      <c r="I63" s="126"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="113"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="126"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="113"/>
-      <c r="I64" s="113"/>
+      <c r="H64" s="126"/>
+      <c r="I64" s="126"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="113"/>
-      <c r="I65" s="113"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4539,6 +4440,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4550,8 +4550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4806,13 +4806,13 @@
         <v>10000</v>
       </c>
       <c r="E17" s="51">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="51">
+        <v>25000</v>
+      </c>
+      <c r="G17" s="51">
         <v>50000</v>
-      </c>
-      <c r="F17" s="51">
-        <v>100000</v>
-      </c>
-      <c r="G17" s="51">
-        <v>500000</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>497</v>
@@ -11948,7 +11948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/banks/zynlo/catalog/ZYNLO_Bank_Catalog.xlsx
+++ b/banks/zynlo/catalog/ZYNLO_Bank_Catalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/zynlo/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D7EB03-6F92-FC47-B3BB-D1139F56952D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95121DB-7FBD-F24B-954E-AEE705CBDB58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,17 @@
     <sheet name="DateIntervalLimits" sheetId="23" r:id="rId19"/>
     <sheet name="ClientTransactionStatusTypes" sheetId="24" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -44,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="620">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -1898,13 +1907,19 @@
   </si>
   <si>
     <t>Today Spending Account</t>
+  </si>
+  <si>
+    <t>Test Money Market</t>
+  </si>
+  <si>
+    <t>103</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2158,6 +2173,12 @@
       <color rgb="FF111315"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2548,6 +2569,29 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2565,29 +2609,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2784,7 +2805,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>274680</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>87720</xdr:rowOff>
+      <xdr:rowOff>49620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3592,22 +3613,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3617,66 +3638,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="115">
+      <c r="H8" s="124">
         <v>2</v>
       </c>
-      <c r="I8" s="115"/>
+      <c r="I8" s="124"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3694,325 +3715,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="119" t="s">
+      <c r="H13" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="119"/>
+      <c r="I13" s="121"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="120" t="s">
+      <c r="H14" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="120"/>
+      <c r="I14" s="119"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="120" t="s">
+      <c r="H15" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="120"/>
+      <c r="I15" s="119"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="120" t="s">
+      <c r="H16" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="120"/>
+      <c r="I16" s="119"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="120" t="s">
+      <c r="H17" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="120"/>
+      <c r="I17" s="119"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="120" t="s">
+      <c r="H18" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="120"/>
+      <c r="I18" s="119"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="120" t="s">
+      <c r="H19" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="120"/>
+      <c r="I19" s="119"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="120" t="s">
+      <c r="H20" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="120"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="120" t="s">
+      <c r="H21" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="120"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="120" t="s">
+      <c r="C22" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="120" t="s">
+      <c r="H22" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="120"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="120" t="s">
+      <c r="H23" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="120"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="120" t="s">
+      <c r="C24" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="120" t="s">
+      <c r="H24" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="120"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C25" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="122" t="s">
+      <c r="H25" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="122"/>
+      <c r="I25" s="116"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C26" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="122" t="s">
+      <c r="H26" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="122"/>
+      <c r="I26" s="116"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="122" t="s">
+      <c r="H27" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="122"/>
+      <c r="I27" s="116"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="122" t="s">
+      <c r="H28" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="122"/>
+      <c r="I28" s="116"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="122" t="s">
+      <c r="H29" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="122"/>
+      <c r="I29" s="116"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4025,405 +4046,504 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="122" t="s">
+      <c r="H31" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="122"/>
+      <c r="I31" s="116"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="122" t="s">
+      <c r="H32" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="122"/>
+      <c r="I32" s="116"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="124" t="s">
+      <c r="C33" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="124" t="s">
+      <c r="H33" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="124"/>
+      <c r="I33" s="117"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="124" t="s">
+      <c r="C34" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="124" t="s">
+      <c r="H34" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="124"/>
+      <c r="I34" s="117"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="122"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="127"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="122"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="122"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="125"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="114"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="125"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="114"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="125"/>
-      <c r="I57" s="125"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="114"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="126"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="125"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="126"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
+      <c r="H60" s="113"/>
+      <c r="I60" s="113"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="126"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="113"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
+      <c r="H61" s="113"/>
+      <c r="I61" s="113"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="126"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="113"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
+      <c r="H62" s="113"/>
+      <c r="I62" s="113"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="126"/>
-      <c r="D63" s="126"/>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
+      <c r="H63" s="113"/>
+      <c r="I63" s="113"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="126"/>
-      <c r="D64" s="126"/>
-      <c r="E64" s="126"/>
-      <c r="F64" s="126"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="113"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="126"/>
-      <c r="I64" s="126"/>
+      <c r="H64" s="113"/>
+      <c r="I64" s="113"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="126"/>
-      <c r="D65" s="126"/>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="113"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="126"/>
-      <c r="I65" s="126"/>
+      <c r="H65" s="113"/>
+      <c r="I65" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4440,105 +4560,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4550,7 +4571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -4833,7 +4854,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4985,8 +5006,12 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="45">
+        <v>0</v>
+      </c>
+      <c r="B20" s="46">
+        <v>104</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" s="45"/>
@@ -5075,7 +5100,7 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5690,9 +5715,15 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="1"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="50"/>
+      <c r="A20" s="1">
+        <v>104</v>
+      </c>
+      <c r="B20" s="40">
+        <v>1</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>618</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -6421,7 +6452,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6656,9 +6687,15 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="46"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="46">
+        <v>104</v>
+      </c>
+      <c r="B20" s="40">
+        <v>1</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>618</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -6804,10 +6841,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7186,45 +7223,51 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>511</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>512</v>
-      </c>
-      <c r="K20" t="s">
-        <v>513</v>
+    <row r="20" spans="1:12" ht="18">
+      <c r="A20" s="1">
+        <v>104</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>103</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="112" t="s">
+        <v>618</v>
       </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K21" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
         <v>514</v>
@@ -7233,16 +7276,16 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
         <v>514</v>
@@ -7251,25 +7294,29 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
+        <v>516</v>
+      </c>
+      <c r="K23" t="s">
+        <v>516</v>
+      </c>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s">
+        <v>514</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>517</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K24" t="s">
         <v>517</v>
       </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="50"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -7301,7 +7348,7 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="47"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="48"/>
       <c r="D27" s="1"/>
@@ -7336,7 +7383,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="50"/>
@@ -7443,7 +7490,7 @@
     <row r="37" spans="1:12">
       <c r="A37" s="47"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="46"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -7581,27 +7628,27 @@
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="F47" s="52"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
       <c r="K47" s="50"/>
+      <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="47"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="F48" s="52"/>
       <c r="K48" s="50"/>
-      <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="47"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="46"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -7627,15 +7674,22 @@
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="1"/>
-      <c r="C51" s="26"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
       <c r="K51" s="50"/>
+      <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1"/>
-      <c r="C52" s="46"/>
+      <c r="C52" s="26"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="K52" s="50"/>
@@ -7649,7 +7703,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1"/>
-      <c r="C54" s="26"/>
+      <c r="C54" s="46"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="K54" s="50"/>
@@ -7658,7 +7712,7 @@
       <c r="A55" s="1"/>
       <c r="C55" s="26"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="47"/>
+      <c r="F55" s="1"/>
       <c r="K55" s="50"/>
     </row>
     <row r="56" spans="1:12">
@@ -7674,6 +7728,13 @@
       <c r="E57" s="1"/>
       <c r="F57" s="47"/>
       <c r="K57" s="50"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1"/>
+      <c r="C58" s="26"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="47"/>
+      <c r="K58" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7686,10 +7747,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7912,10 +7973,10 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20">
-        <v>64</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="1">
+        <v>104</v>
+      </c>
+      <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1"/>
@@ -7925,7 +7986,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -7937,7 +7998,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7949,7 +8010,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -7960,8 +8021,12 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="47"/>
-      <c r="B24" s="1"/>
+      <c r="A24">
+        <v>181</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -8119,8 +8184,16 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1">
-      <c r="B44" s="46"/>
+    <row r="44" spans="1:6">
+      <c r="A44" s="47"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1">
+      <c r="B45" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13383,7 +13456,7 @@
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13805,17 +13878,29 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="1"/>
+    <row r="20" spans="1:25" ht="18">
+      <c r="A20" s="1">
+        <v>104</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="26"/>
+      <c r="H20" s="45">
+        <v>1</v>
+      </c>
+      <c r="I20" s="112" t="s">
+        <v>618</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="46"/>
@@ -14174,7 +14259,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14794,11 +14879,19 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="49"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="49" t="s">
+        <v>619</v>
+      </c>
+      <c r="B20" s="46">
+        <v>104</v>
+      </c>
+      <c r="C20" s="45">
+        <v>1</v>
+      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="26"/>
+      <c r="E20" s="26" t="s">
+        <v>618</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -15382,6 +15475,7 @@
       <c r="Z40" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/banks/zynlo/catalog/ZYNLO_Bank_Catalog.xlsx
+++ b/banks/zynlo/catalog/ZYNLO_Bank_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/zynlo/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95121DB-7FBD-F24B-954E-AEE705CBDB58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4294910-5718-AD40-8453-C860C01481AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="16420" tabRatio="826" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -53,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="621">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -1913,6 +1904,9 @@
   </si>
   <si>
     <t>103</t>
+  </si>
+  <si>
+    <t>More Money Market</t>
   </si>
 </sst>
 </file>
@@ -2569,29 +2563,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2609,6 +2580,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3613,22 +3607,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3638,66 +3632,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="124">
+      <c r="H8" s="115">
         <v>2</v>
       </c>
-      <c r="I8" s="124"/>
+      <c r="I8" s="115"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3715,325 +3709,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="121" t="s">
+      <c r="H13" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="121"/>
+      <c r="I13" s="119"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="119"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="119" t="s">
+      <c r="H15" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="119"/>
+      <c r="I15" s="120"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="119" t="s">
+      <c r="H16" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="119"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="119" t="s">
+      <c r="H17" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="119"/>
+      <c r="I17" s="120"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="119" t="s">
+      <c r="H18" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="119"/>
+      <c r="I18" s="120"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="119" t="s">
+      <c r="H19" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="119"/>
+      <c r="I19" s="120"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="119" t="s">
+      <c r="H20" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="119" t="s">
+      <c r="H21" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="119"/>
+      <c r="I21" s="120"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="119" t="s">
+      <c r="H22" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="119"/>
+      <c r="I22" s="120"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="119" t="s">
+      <c r="H23" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="119"/>
+      <c r="I23" s="120"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="119" t="s">
+      <c r="H24" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="119"/>
+      <c r="I24" s="120"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="116" t="s">
+      <c r="H25" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="116"/>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="116" t="s">
+      <c r="H26" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="116"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="116" t="s">
+      <c r="C27" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="116" t="s">
+      <c r="H27" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="116"/>
+      <c r="I27" s="122"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="116" t="s">
+      <c r="H28" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="116"/>
+      <c r="I28" s="122"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="116" t="s">
+      <c r="C29" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="116" t="s">
+      <c r="H29" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="116"/>
+      <c r="I29" s="122"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="116" t="s">
+      <c r="C30" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4046,504 +4040,405 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="116" t="s">
+      <c r="C31" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="116" t="s">
+      <c r="H31" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="116"/>
+      <c r="I31" s="122"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="116" t="s">
+      <c r="H32" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="116"/>
+      <c r="I32" s="122"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="117" t="s">
+      <c r="C33" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="117" t="s">
+      <c r="H33" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="117"/>
+      <c r="I33" s="124"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="117" t="s">
+      <c r="H34" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="117"/>
+      <c r="I34" s="124"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="122"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="116"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="116"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="114"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="114"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="114"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="113"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="125"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="113"/>
-      <c r="I60" s="113"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="113"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="126"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="113"/>
-      <c r="I61" s="113"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="113"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="113"/>
-      <c r="I62" s="113"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="113"/>
-      <c r="I63" s="113"/>
+      <c r="H63" s="126"/>
+      <c r="I63" s="126"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="113"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="126"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="113"/>
-      <c r="I64" s="113"/>
+      <c r="H64" s="126"/>
+      <c r="I64" s="126"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="113"/>
-      <c r="I65" s="113"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4560,6 +4455,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5100,7 +5094,7 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5722,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6694,7 +6688,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6843,8 +6837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7243,7 +7237,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="112" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -7749,7 +7743,7 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>

--- a/banks/zynlo/catalog/ZYNLO_Bank_Catalog.xlsx
+++ b/banks/zynlo/catalog/ZYNLO_Bank_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/zynlo/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4294910-5718-AD40-8453-C860C01481AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5048885C-DCC4-A046-A8BA-2D0823639707}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="16420" tabRatio="826" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="33600" windowHeight="16420" tabRatio="826" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,15 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -44,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="622">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -1907,6 +1916,9 @@
   </si>
   <si>
     <t>More Money Market</t>
+  </si>
+  <si>
+    <t>Zynlo Money Market Account</t>
   </si>
 </sst>
 </file>
@@ -2563,6 +2575,29 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2580,29 +2615,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3607,22 +3619,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3632,66 +3644,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="115">
+      <c r="H8" s="124">
         <v>2</v>
       </c>
-      <c r="I8" s="115"/>
+      <c r="I8" s="124"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3709,325 +3721,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="119" t="s">
+      <c r="H13" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="119"/>
+      <c r="I13" s="121"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="120" t="s">
+      <c r="H14" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="120"/>
+      <c r="I14" s="119"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="120" t="s">
+      <c r="H15" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="120"/>
+      <c r="I15" s="119"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="120" t="s">
+      <c r="H16" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="120"/>
+      <c r="I16" s="119"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="120" t="s">
+      <c r="H17" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="120"/>
+      <c r="I17" s="119"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="120" t="s">
+      <c r="H18" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="120"/>
+      <c r="I18" s="119"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="120" t="s">
+      <c r="H19" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="120"/>
+      <c r="I19" s="119"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="120" t="s">
+      <c r="H20" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="120"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="120" t="s">
+      <c r="H21" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="120"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="120" t="s">
+      <c r="C22" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="120" t="s">
+      <c r="H22" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="120"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="120" t="s">
+      <c r="H23" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="120"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="120" t="s">
+      <c r="C24" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="120" t="s">
+      <c r="H24" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="120"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C25" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="122" t="s">
+      <c r="H25" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="122"/>
+      <c r="I25" s="116"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C26" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="122" t="s">
+      <c r="H26" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="122"/>
+      <c r="I26" s="116"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="122" t="s">
+      <c r="H27" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="122"/>
+      <c r="I27" s="116"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="122" t="s">
+      <c r="H28" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="122"/>
+      <c r="I28" s="116"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="122" t="s">
+      <c r="H29" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="122"/>
+      <c r="I29" s="116"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4040,405 +4052,504 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="122" t="s">
+      <c r="H31" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="122"/>
+      <c r="I31" s="116"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="122" t="s">
+      <c r="H32" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="122"/>
+      <c r="I32" s="116"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="124" t="s">
+      <c r="C33" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="124" t="s">
+      <c r="H33" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="124"/>
+      <c r="I33" s="117"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="124" t="s">
+      <c r="C34" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="124" t="s">
+      <c r="H34" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="124"/>
+      <c r="I34" s="117"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="122"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="127"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="122"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="122"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="125"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="114"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="125"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="114"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="125"/>
-      <c r="I57" s="125"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="114"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="126"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="125"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="126"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
+      <c r="H60" s="113"/>
+      <c r="I60" s="113"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="126"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="113"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
+      <c r="H61" s="113"/>
+      <c r="I61" s="113"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="126"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="113"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
+      <c r="H62" s="113"/>
+      <c r="I62" s="113"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="126"/>
-      <c r="D63" s="126"/>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
+      <c r="H63" s="113"/>
+      <c r="I63" s="113"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="126"/>
-      <c r="D64" s="126"/>
-      <c r="E64" s="126"/>
-      <c r="F64" s="126"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="113"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="126"/>
-      <c r="I64" s="126"/>
+      <c r="H64" s="113"/>
+      <c r="I64" s="113"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="126"/>
-      <c r="D65" s="126"/>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="113"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="126"/>
-      <c r="I65" s="126"/>
+      <c r="H65" s="113"/>
+      <c r="I65" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4455,105 +4566,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5094,7 +5106,7 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5682,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="112" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6446,7 +6458,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6674,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="112" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6838,7 +6850,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7213,7 +7225,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="112" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="L19" s="1"/>
     </row>

--- a/banks/zynlo/catalog/ZYNLO_Bank_Catalog.xlsx
+++ b/banks/zynlo/catalog/ZYNLO_Bank_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/zynlo/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5048885C-DCC4-A046-A8BA-2D0823639707}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621896BA-F673-8343-9EF7-C81D9AA4B186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="33600" windowHeight="16420" tabRatio="826" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="50280" windowHeight="20940" tabRatio="826" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -2575,29 +2575,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2615,6 +2592,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2811,7 +2811,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>274680</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>49620</xdr:rowOff>
+      <xdr:rowOff>87720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3619,22 +3619,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3644,66 +3644,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="124">
+      <c r="H8" s="115">
         <v>2</v>
       </c>
-      <c r="I8" s="124"/>
+      <c r="I8" s="115"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3721,325 +3721,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="121" t="s">
+      <c r="H13" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="121"/>
+      <c r="I13" s="119"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="119"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="119" t="s">
+      <c r="H15" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="119"/>
+      <c r="I15" s="120"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="119" t="s">
+      <c r="H16" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="119"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="119" t="s">
+      <c r="H17" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="119"/>
+      <c r="I17" s="120"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="119" t="s">
+      <c r="H18" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="119"/>
+      <c r="I18" s="120"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="119" t="s">
+      <c r="H19" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="119"/>
+      <c r="I19" s="120"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="119" t="s">
+      <c r="H20" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="119" t="s">
+      <c r="H21" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="119"/>
+      <c r="I21" s="120"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="119" t="s">
+      <c r="H22" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="119"/>
+      <c r="I22" s="120"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="119" t="s">
+      <c r="H23" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="119"/>
+      <c r="I23" s="120"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="119" t="s">
+      <c r="H24" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="119"/>
+      <c r="I24" s="120"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="116" t="s">
+      <c r="H25" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="116"/>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="116" t="s">
+      <c r="H26" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="116"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="116" t="s">
+      <c r="C27" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="116" t="s">
+      <c r="H27" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="116"/>
+      <c r="I27" s="122"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="116" t="s">
+      <c r="H28" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="116"/>
+      <c r="I28" s="122"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="116" t="s">
+      <c r="C29" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="116" t="s">
+      <c r="H29" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="116"/>
+      <c r="I29" s="122"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="116" t="s">
+      <c r="C30" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4052,504 +4052,405 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="116" t="s">
+      <c r="C31" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="116" t="s">
+      <c r="H31" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="116"/>
+      <c r="I31" s="122"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="116" t="s">
+      <c r="H32" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="116"/>
+      <c r="I32" s="122"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="117" t="s">
+      <c r="C33" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="117" t="s">
+      <c r="H33" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="117"/>
+      <c r="I33" s="124"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="117" t="s">
+      <c r="H34" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="117"/>
+      <c r="I34" s="124"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="122"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="127"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="122"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="116"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="116"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="127"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="114"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="114"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="114"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="113"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="125"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="113"/>
-      <c r="I60" s="113"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="113"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="126"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="113"/>
-      <c r="I61" s="113"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="113"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="113"/>
-      <c r="I62" s="113"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="113"/>
-      <c r="I63" s="113"/>
+      <c r="H63" s="126"/>
+      <c r="I63" s="126"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="113"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="126"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="113"/>
-      <c r="I64" s="113"/>
+      <c r="H64" s="126"/>
+      <c r="I64" s="126"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="113"/>
-      <c r="I65" s="113"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4566,6 +4467,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5106,7 +5106,7 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7755,7 +7755,7 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -13461,8 +13461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13863,10 +13863,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="112" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="J19" s="112" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -13884,7 +13884,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="18">
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>104</v>
       </c>
@@ -13901,11 +13901,11 @@
       <c r="H20" s="45">
         <v>1</v>
       </c>
-      <c r="I20" s="112" t="s">
-        <v>618</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>618</v>
+      <c r="I20" s="50" t="s">
+        <v>620</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:25">
